--- a/HW2_Mark_Robinson_UG/Results.xlsx
+++ b/HW2_Mark_Robinson_UG/Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mial2\Desktop\ece483\HW2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mial2\Desktop\ece483\HW2_Mark_Robinson_UG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5D133A-F235-44D5-A43D-9184CD130DE5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18E7E4E-252C-4340-933F-C896A12707C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="11835" xr2:uid="{4379B7EB-8557-4924-8C69-F616FB0FCA27}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Classifier</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>Average K-Fold AUC</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>datenum: 736005.35993146</t>
+  </si>
+  <si>
+    <t>datetime:  10-Feb-2015 08:38:18</t>
   </si>
 </sst>
 </file>
@@ -422,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE4C07F-6FD3-40A4-9634-1195289F6001}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,10 +443,11 @@
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,88 +464,108 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0.20589439000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.43071184000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.36472795000000002</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>0.15500068</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>0.87595747000000002</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>0.14634146000000001</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>21.5693181</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>0.19306862999999999</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>0.59121159999999995</v>
-      </c>
-      <c r="D3">
-        <v>0.36472795000000002</v>
-      </c>
-      <c r="E3">
-        <v>36.904034299999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>1.2279979999999999E-2</v>
-      </c>
-      <c r="C4">
-        <v>0.99041836999999999</v>
       </c>
       <c r="D4">
         <v>0.36472795000000002</v>
       </c>
       <c r="E4">
+        <v>36.904034299999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1.2279979999999999E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.99041836999999999</v>
+      </c>
+      <c r="D5">
+        <v>2.138837E-2</v>
+      </c>
+      <c r="E5">
         <v>364.38660852999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>7.7227450000000003E-2</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>0.96350959000000003</v>
       </c>
-      <c r="D5">
-        <v>0.36472795000000002</v>
-      </c>
-      <c r="E5">
+      <c r="D6">
+        <v>0.13058160999999999</v>
+      </c>
+      <c r="E6">
         <v>742.22500306999996</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>0.18024287</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>0.68057643999999995</v>
       </c>
-      <c r="D6">
-        <v>0.63527204999999998</v>
-      </c>
-      <c r="E6">
+      <c r="D7">
+        <v>0.28818010999999999</v>
+      </c>
+      <c r="E7">
         <v>5.0959899999999999E-3</v>
       </c>
     </row>

--- a/HW2_Mark_Robinson_UG/Results.xlsx
+++ b/HW2_Mark_Robinson_UG/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mial2\Desktop\ece483\HW2_Mark_Robinson_UG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18E7E4E-252C-4340-933F-C896A12707C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F16DAFE-FCAA-4E89-A87F-7D4C48534A51}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="11835" xr2:uid="{4379B7EB-8557-4924-8C69-F616FB0FCA27}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Classifier</t>
   </si>
@@ -64,12 +64,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>datenum: 736005.35993146</t>
-  </si>
-  <si>
-    <t>datetime:  10-Feb-2015 08:38:18</t>
   </si>
 </sst>
 </file>
@@ -113,10 +107,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE4C07F-6FD3-40A4-9634-1195289F6001}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +442,7 @@
     <col min="6" max="6" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -477,14 +472,11 @@
       <c r="D2">
         <v>0.36472795000000002</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="3">
+        <v>42045.359930555554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -501,7 +493,7 @@
         <v>21.5693181</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -518,7 +510,7 @@
         <v>36.904034299999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -535,7 +527,7 @@
         <v>364.38660852999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -552,7 +544,7 @@
         <v>742.22500306999996</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
